--- a/data/pca/factorExposure/factorExposure_2015-10-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01022997549966129</v>
+        <v>0.01324932985568326</v>
       </c>
       <c r="C2">
-        <v>-0.02966612584809302</v>
+        <v>0.0354303940265971</v>
       </c>
       <c r="D2">
-        <v>-0.1050574337021095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1284648900618277</v>
+      </c>
+      <c r="E2">
+        <v>0.05589732733121334</v>
+      </c>
+      <c r="F2">
+        <v>0.02032880252545888</v>
+      </c>
+      <c r="G2">
+        <v>-0.05110572757813181</v>
+      </c>
+      <c r="H2">
+        <v>0.1068277952249584</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01501615095788765</v>
+        <v>0.01051546482714142</v>
       </c>
       <c r="C3">
-        <v>-0.05421502634922397</v>
+        <v>0.04320503340408346</v>
       </c>
       <c r="D3">
-        <v>-0.08834834906424904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05595955341741533</v>
+      </c>
+      <c r="E3">
+        <v>0.04116576910426635</v>
+      </c>
+      <c r="F3">
+        <v>0.06868063587294837</v>
+      </c>
+      <c r="G3">
+        <v>-0.1236717840525686</v>
+      </c>
+      <c r="H3">
+        <v>0.06062115399178228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04488386262947539</v>
+        <v>0.04953220560078166</v>
       </c>
       <c r="C4">
-        <v>-0.05771571219349241</v>
+        <v>0.07112506121054982</v>
       </c>
       <c r="D4">
-        <v>-0.1249485599639047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1450782354588704</v>
+      </c>
+      <c r="E4">
+        <v>0.05258763890254996</v>
+      </c>
+      <c r="F4">
+        <v>0.03259997787805621</v>
+      </c>
+      <c r="G4">
+        <v>0.04680589198177756</v>
+      </c>
+      <c r="H4">
+        <v>-0.00278565706128274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03513797065264784</v>
+        <v>0.03754108635209641</v>
       </c>
       <c r="C6">
-        <v>-0.0236462768212863</v>
+        <v>0.02849926194830806</v>
       </c>
       <c r="D6">
-        <v>-0.1445502695937224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1409757682908692</v>
+      </c>
+      <c r="E6">
+        <v>0.01824713444960983</v>
+      </c>
+      <c r="F6">
+        <v>0.02497336530931727</v>
+      </c>
+      <c r="G6">
+        <v>0.01876054917127493</v>
+      </c>
+      <c r="H6">
+        <v>0.05714707585128146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01436673019267786</v>
+        <v>0.01147367993383997</v>
       </c>
       <c r="C7">
-        <v>-0.02727340863167549</v>
+        <v>0.03353612877379804</v>
       </c>
       <c r="D7">
-        <v>-0.104279723230533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09734476231009752</v>
+      </c>
+      <c r="E7">
+        <v>0.01550443888450223</v>
+      </c>
+      <c r="F7">
+        <v>0.02388644574461949</v>
+      </c>
+      <c r="G7">
+        <v>-0.003429146476806618</v>
+      </c>
+      <c r="H7">
+        <v>0.08371742057261196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002512989858451958</v>
+        <v>0.00391909806020709</v>
       </c>
       <c r="C8">
-        <v>-0.03803344895661108</v>
+        <v>0.03968494615063902</v>
       </c>
       <c r="D8">
-        <v>-0.06842432401855582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08327646532026128</v>
+      </c>
+      <c r="E8">
+        <v>0.03534578719386106</v>
+      </c>
+      <c r="F8">
+        <v>0.06814485525146795</v>
+      </c>
+      <c r="G8">
+        <v>-0.03724543786632399</v>
+      </c>
+      <c r="H8">
+        <v>0.05576012001542774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03764291292158231</v>
+        <v>0.03956319318112152</v>
       </c>
       <c r="C9">
-        <v>-0.05239401000750213</v>
+        <v>0.06471223971378602</v>
       </c>
       <c r="D9">
-        <v>-0.1100776027963171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.121315444333226</v>
+      </c>
+      <c r="E9">
+        <v>0.03871956647738702</v>
+      </c>
+      <c r="F9">
+        <v>0.01471639191958139</v>
+      </c>
+      <c r="G9">
+        <v>0.02897773066236991</v>
+      </c>
+      <c r="H9">
+        <v>0.00493960211573727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1182698086654913</v>
+        <v>0.1484092580422997</v>
       </c>
       <c r="C10">
-        <v>0.1810879301805778</v>
+        <v>-0.1876581881541057</v>
       </c>
       <c r="D10">
-        <v>-0.003054501597103455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01141036458313446</v>
+      </c>
+      <c r="E10">
+        <v>0.04218035210254847</v>
+      </c>
+      <c r="F10">
+        <v>0.04875698490533908</v>
+      </c>
+      <c r="G10">
+        <v>0.001196429331808666</v>
+      </c>
+      <c r="H10">
+        <v>-0.03278953531746596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02916361951232337</v>
+        <v>0.02831329194427121</v>
       </c>
       <c r="C11">
-        <v>-0.04182373199807653</v>
+        <v>0.04574954909724104</v>
       </c>
       <c r="D11">
-        <v>-0.05991528660708736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05877437874907072</v>
+      </c>
+      <c r="E11">
+        <v>-0.009665653128911725</v>
+      </c>
+      <c r="F11">
+        <v>-0.006863500501096103</v>
+      </c>
+      <c r="G11">
+        <v>0.003939153097029493</v>
+      </c>
+      <c r="H11">
+        <v>0.03454562952682999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03455603366317875</v>
+        <v>0.03223029335705438</v>
       </c>
       <c r="C12">
-        <v>-0.04380856212143366</v>
+        <v>0.04824356064720243</v>
       </c>
       <c r="D12">
-        <v>-0.05886424316349015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05591101294620307</v>
+      </c>
+      <c r="E12">
+        <v>0.0001111317755219274</v>
+      </c>
+      <c r="F12">
+        <v>-0.01182537524638361</v>
+      </c>
+      <c r="G12">
+        <v>-0.004150905572485016</v>
+      </c>
+      <c r="H12">
+        <v>0.03563364044767005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009370948160604744</v>
+        <v>0.01515852371305856</v>
       </c>
       <c r="C13">
-        <v>-0.03388718989640165</v>
+        <v>0.03957336409859522</v>
       </c>
       <c r="D13">
-        <v>-0.1385370299062365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1550100140935561</v>
+      </c>
+      <c r="E13">
+        <v>0.02965205061129396</v>
+      </c>
+      <c r="F13">
+        <v>0.0524111144644004</v>
+      </c>
+      <c r="G13">
+        <v>-0.01636266998031006</v>
+      </c>
+      <c r="H13">
+        <v>0.07572115350143487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001366287698968243</v>
+        <v>0.00534798814014101</v>
       </c>
       <c r="C14">
-        <v>-0.02155492884476002</v>
+        <v>0.02364054913932314</v>
       </c>
       <c r="D14">
-        <v>-0.08605648136853861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09242759026287942</v>
+      </c>
+      <c r="E14">
+        <v>0.02958752677045699</v>
+      </c>
+      <c r="F14">
+        <v>0.01051829284005243</v>
+      </c>
+      <c r="G14">
+        <v>-0.003425022920516508</v>
+      </c>
+      <c r="H14">
+        <v>0.100862058709769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003081521370536033</v>
+        <v>0.0008721442322161324</v>
       </c>
       <c r="C15">
-        <v>-0.003403421248966826</v>
+        <v>0.01212993120165234</v>
       </c>
       <c r="D15">
-        <v>-0.002837820287902957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03537989798511131</v>
+      </c>
+      <c r="E15">
+        <v>0.008908146721686943</v>
+      </c>
+      <c r="F15">
+        <v>0.00172668271425298</v>
+      </c>
+      <c r="G15">
+        <v>-0.002244214239605351</v>
+      </c>
+      <c r="H15">
+        <v>0.02310532337774207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02869963642990546</v>
+        <v>0.02804146073865968</v>
       </c>
       <c r="C16">
-        <v>-0.0441322380343525</v>
+        <v>0.04660706668889319</v>
       </c>
       <c r="D16">
-        <v>-0.06316005215794501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06164768061134232</v>
+      </c>
+      <c r="E16">
+        <v>0.00719282531482359</v>
+      </c>
+      <c r="F16">
+        <v>-0.00261586681701722</v>
+      </c>
+      <c r="G16">
+        <v>0.002098508536350875</v>
+      </c>
+      <c r="H16">
+        <v>0.04972235347751674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006731289255073293</v>
+        <v>0.005348016344938791</v>
       </c>
       <c r="C19">
-        <v>-0.03227752873706743</v>
+        <v>0.02698571676279002</v>
       </c>
       <c r="D19">
-        <v>-0.151849906560628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.116470510815635</v>
+      </c>
+      <c r="E19">
+        <v>0.06107402562646903</v>
+      </c>
+      <c r="F19">
+        <v>-0.002895556405805114</v>
+      </c>
+      <c r="G19">
+        <v>-0.0264177980200025</v>
+      </c>
+      <c r="H19">
+        <v>0.05485461118582681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01109931503765212</v>
+        <v>0.01395457233734765</v>
       </c>
       <c r="C20">
-        <v>-0.03067926634545971</v>
+        <v>0.03491773445239262</v>
       </c>
       <c r="D20">
-        <v>-0.08784779942687129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1029809250752458</v>
+      </c>
+      <c r="E20">
+        <v>0.04796163596365782</v>
+      </c>
+      <c r="F20">
+        <v>0.007245060332998521</v>
+      </c>
+      <c r="G20">
+        <v>0.006202180368461423</v>
+      </c>
+      <c r="H20">
+        <v>0.05580391882326403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002302383969130874</v>
+        <v>0.007527639014035241</v>
       </c>
       <c r="C21">
-        <v>-0.03012198034575614</v>
+        <v>0.03833771769178403</v>
       </c>
       <c r="D21">
-        <v>-0.1319526190231443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1408399114581926</v>
+      </c>
+      <c r="E21">
+        <v>0.08188362275969839</v>
+      </c>
+      <c r="F21">
+        <v>0.02967553616062192</v>
+      </c>
+      <c r="G21">
+        <v>0.007840144435009938</v>
+      </c>
+      <c r="H21">
+        <v>0.08201694043728064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003937411423264688</v>
+        <v>0.00572549990069898</v>
       </c>
       <c r="C22">
-        <v>-0.04492730344952576</v>
+        <v>0.04357191013266891</v>
       </c>
       <c r="D22">
-        <v>-0.1072384941121449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1572238469197659</v>
+      </c>
+      <c r="E22">
+        <v>0.01645843287850346</v>
+      </c>
+      <c r="F22">
+        <v>0.1027446806734644</v>
+      </c>
+      <c r="G22">
+        <v>-0.07141596435739216</v>
+      </c>
+      <c r="H22">
+        <v>0.03716696972934904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.003825549031896329</v>
+        <v>0.005853206857670811</v>
       </c>
       <c r="C23">
-        <v>-0.04522723305070173</v>
+        <v>0.04404463949215497</v>
       </c>
       <c r="D23">
-        <v>-0.1066761929620984</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1565212062916947</v>
+      </c>
+      <c r="E23">
+        <v>0.01689456925384069</v>
+      </c>
+      <c r="F23">
+        <v>0.102850060633341</v>
+      </c>
+      <c r="G23">
+        <v>-0.07065533228978577</v>
+      </c>
+      <c r="H23">
+        <v>0.03664125456133108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03094834447245572</v>
+        <v>0.02933718943931798</v>
       </c>
       <c r="C24">
-        <v>-0.05436263347674834</v>
+        <v>0.05861522098411302</v>
       </c>
       <c r="D24">
-        <v>-0.06513929142671546</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06488328586785833</v>
+      </c>
+      <c r="E24">
+        <v>0.009271623703899107</v>
+      </c>
+      <c r="F24">
+        <v>-0.005553687206310697</v>
+      </c>
+      <c r="G24">
+        <v>0.012779216121753</v>
+      </c>
+      <c r="H24">
+        <v>0.0557181644007837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03566504282634725</v>
+        <v>0.03334987605688527</v>
       </c>
       <c r="C25">
-        <v>-0.05219408767423221</v>
+        <v>0.05576744668521699</v>
       </c>
       <c r="D25">
-        <v>-0.06303251145542924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06191610459775653</v>
+      </c>
+      <c r="E25">
+        <v>0.009886147138495123</v>
+      </c>
+      <c r="F25">
+        <v>-0.002225677871362977</v>
+      </c>
+      <c r="G25">
+        <v>0.0002984421748084901</v>
+      </c>
+      <c r="H25">
+        <v>0.02802846600235038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01270095813016468</v>
+        <v>0.01557318587167788</v>
       </c>
       <c r="C26">
-        <v>-0.01182870024711326</v>
+        <v>0.01770188346174947</v>
       </c>
       <c r="D26">
-        <v>-0.05457825530755581</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06287338391335909</v>
+      </c>
+      <c r="E26">
+        <v>0.01994689769764632</v>
+      </c>
+      <c r="F26">
+        <v>0.01349099032237577</v>
+      </c>
+      <c r="G26">
+        <v>0.001523481429633227</v>
+      </c>
+      <c r="H26">
+        <v>0.05807008251296515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1726403561137855</v>
+        <v>0.2112426456875803</v>
       </c>
       <c r="C28">
-        <v>0.2561092071531659</v>
+        <v>-0.2510113113692274</v>
       </c>
       <c r="D28">
-        <v>0.009743086504858641</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.0003806211880013942</v>
+      </c>
+      <c r="E28">
+        <v>0.07368661680587114</v>
+      </c>
+      <c r="F28">
+        <v>0.0263826180997504</v>
+      </c>
+      <c r="G28">
+        <v>0.02953252636967541</v>
+      </c>
+      <c r="H28">
+        <v>-0.04193769400035431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001090354164304887</v>
+        <v>0.00279708066933226</v>
       </c>
       <c r="C29">
-        <v>-0.02179671020070452</v>
+        <v>0.0219546790522493</v>
       </c>
       <c r="D29">
-        <v>-0.07252071221484872</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.09006577690275074</v>
+      </c>
+      <c r="E29">
+        <v>0.02052028772529151</v>
+      </c>
+      <c r="F29">
+        <v>0.02835830624837677</v>
+      </c>
+      <c r="G29">
+        <v>0.007569034234461549</v>
+      </c>
+      <c r="H29">
+        <v>0.09712879279780438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02682357127415694</v>
+        <v>0.03615657597315659</v>
       </c>
       <c r="C30">
-        <v>-0.04801843019563633</v>
+        <v>0.0617628455304299</v>
       </c>
       <c r="D30">
-        <v>-0.1558191209066623</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1726286185853416</v>
+      </c>
+      <c r="E30">
+        <v>0.02287497281886675</v>
+      </c>
+      <c r="F30">
+        <v>0.01938680821162388</v>
+      </c>
+      <c r="G30">
+        <v>0.02574527095726787</v>
+      </c>
+      <c r="H30">
+        <v>0.0716681312638488</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0583696960381497</v>
+        <v>0.05182252557406508</v>
       </c>
       <c r="C31">
-        <v>-0.06512216488290436</v>
+        <v>0.07644041432457682</v>
       </c>
       <c r="D31">
-        <v>-0.07154957033540031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05556896792692249</v>
+      </c>
+      <c r="E31">
+        <v>0.02205990704122745</v>
+      </c>
+      <c r="F31">
+        <v>0.03804527914732443</v>
+      </c>
+      <c r="G31">
+        <v>-0.002617426078463259</v>
+      </c>
+      <c r="H31">
+        <v>0.01295694364494104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008485552158503771</v>
+        <v>0.01593603598605281</v>
       </c>
       <c r="C32">
-        <v>-0.009970085419312045</v>
+        <v>0.01409381181340904</v>
       </c>
       <c r="D32">
-        <v>-0.07219656268963411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1144413186310511</v>
+      </c>
+      <c r="E32">
+        <v>0.07684638756518261</v>
+      </c>
+      <c r="F32">
+        <v>0.03556739520806609</v>
+      </c>
+      <c r="G32">
+        <v>0.01159336735332448</v>
+      </c>
+      <c r="H32">
+        <v>0.06603115029979166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02036877516873103</v>
+        <v>0.02327233294786998</v>
       </c>
       <c r="C33">
-        <v>-0.0378419746423889</v>
+        <v>0.04486635239823803</v>
       </c>
       <c r="D33">
-        <v>-0.1350874533916534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.133691615457992</v>
+      </c>
+      <c r="E33">
+        <v>0.03885424742318068</v>
+      </c>
+      <c r="F33">
+        <v>0.01929779898319248</v>
+      </c>
+      <c r="G33">
+        <v>-0.001411393215959152</v>
+      </c>
+      <c r="H33">
+        <v>0.06510545037388016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02992806256598353</v>
+        <v>0.02604907481823198</v>
       </c>
       <c r="C34">
-        <v>-0.0642176335974656</v>
+        <v>0.06285920712054924</v>
       </c>
       <c r="D34">
-        <v>-0.06505061469790149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05466518956871545</v>
+      </c>
+      <c r="E34">
+        <v>-0.007788746081331554</v>
+      </c>
+      <c r="F34">
+        <v>-0.01557536431577498</v>
+      </c>
+      <c r="G34">
+        <v>-0.002160845912497997</v>
+      </c>
+      <c r="H34">
+        <v>0.04641937442028907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0007823364144702518</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009382329493833995</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007160573981234496</v>
+      </c>
+      <c r="E35">
+        <v>-0.0005686240713017759</v>
+      </c>
+      <c r="F35">
+        <v>0.001033330026350048</v>
+      </c>
+      <c r="G35">
+        <v>-0.0006158438231640211</v>
+      </c>
+      <c r="H35">
+        <v>0.004229694106710214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01648290105565297</v>
+        <v>0.0182635011410703</v>
       </c>
       <c r="C36">
-        <v>-0.007810985299403275</v>
+        <v>0.01532543785075031</v>
       </c>
       <c r="D36">
-        <v>-0.0770981116953301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0775112471935706</v>
+      </c>
+      <c r="E36">
+        <v>0.02737537665057104</v>
+      </c>
+      <c r="F36">
+        <v>0.01059397944620311</v>
+      </c>
+      <c r="G36">
+        <v>0.01324906893925437</v>
+      </c>
+      <c r="H36">
+        <v>0.04996111960233299</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01790638557857057</v>
+        <v>0.02043832500397389</v>
       </c>
       <c r="C38">
-        <v>-0.01763235903255244</v>
+        <v>0.02010347642568525</v>
       </c>
       <c r="D38">
-        <v>-0.06338622958586732</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06637277230389677</v>
+      </c>
+      <c r="E38">
+        <v>0.03357088002945737</v>
+      </c>
+      <c r="F38">
+        <v>-0.01192943137859656</v>
+      </c>
+      <c r="G38">
+        <v>-0.02591878001127806</v>
+      </c>
+      <c r="H38">
+        <v>0.04693506920208585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03273779413814415</v>
+        <v>0.03243740287782226</v>
       </c>
       <c r="C39">
-        <v>-0.05713074375855325</v>
+        <v>0.06977462678392737</v>
       </c>
       <c r="D39">
-        <v>-0.08481341605660447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1009674576392502</v>
+      </c>
+      <c r="E39">
+        <v>0.007731657982318331</v>
+      </c>
+      <c r="F39">
+        <v>-0.02620777382191738</v>
+      </c>
+      <c r="G39">
+        <v>0.02323977305727347</v>
+      </c>
+      <c r="H39">
+        <v>0.09560927135359243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01196394515902388</v>
+        <v>0.009739555930309644</v>
       </c>
       <c r="C40">
-        <v>-0.04395344070023566</v>
+        <v>0.04118244464082858</v>
       </c>
       <c r="D40">
-        <v>-0.08067556286574848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08648716078419047</v>
+      </c>
+      <c r="E40">
+        <v>0.04851121267885448</v>
+      </c>
+      <c r="F40">
+        <v>0.09824894379201335</v>
+      </c>
+      <c r="G40">
+        <v>-0.1070840799016601</v>
+      </c>
+      <c r="H40">
+        <v>0.1512337125469763</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02388463906362029</v>
+        <v>0.02290399766749644</v>
       </c>
       <c r="C41">
-        <v>-0.003558020858142115</v>
+        <v>0.009312217563154075</v>
       </c>
       <c r="D41">
-        <v>-0.06560137317479041</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05346384049255686</v>
+      </c>
+      <c r="E41">
+        <v>0.04816353295130327</v>
+      </c>
+      <c r="F41">
+        <v>0.01165208046098612</v>
+      </c>
+      <c r="G41">
+        <v>-0.01953530234077071</v>
+      </c>
+      <c r="H41">
+        <v>0.04230411563851415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02487382225478414</v>
+        <v>0.02269812820078066</v>
       </c>
       <c r="C43">
-        <v>-0.01427758261138668</v>
+        <v>0.01863455826544732</v>
       </c>
       <c r="D43">
-        <v>-0.1077693256026488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08441031303698429</v>
+      </c>
+      <c r="E43">
+        <v>0.02500224885055185</v>
+      </c>
+      <c r="F43">
+        <v>0.006834357421285389</v>
+      </c>
+      <c r="G43">
+        <v>-0.0205903667547182</v>
+      </c>
+      <c r="H43">
+        <v>0.05013739295987989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.00986737986147816</v>
+        <v>0.01406931506042965</v>
       </c>
       <c r="C44">
-        <v>-0.04139112188035472</v>
+        <v>0.04149370352262777</v>
       </c>
       <c r="D44">
-        <v>-0.08347536953167208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1052580099318743</v>
+      </c>
+      <c r="E44">
+        <v>0.0525921254121728</v>
+      </c>
+      <c r="F44">
+        <v>0.01708172904235376</v>
+      </c>
+      <c r="G44">
+        <v>-0.007374619601366974</v>
+      </c>
+      <c r="H44">
+        <v>0.0642519769229222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01041388472216887</v>
+        <v>0.01118217467419645</v>
       </c>
       <c r="C46">
-        <v>-0.02512584758856935</v>
+        <v>0.02968957117140057</v>
       </c>
       <c r="D46">
-        <v>-0.08237479257142265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08685048118332583</v>
+      </c>
+      <c r="E46">
+        <v>0.03070000268911283</v>
+      </c>
+      <c r="F46">
+        <v>0.007240212507000686</v>
+      </c>
+      <c r="G46">
+        <v>0.01305083783576474</v>
+      </c>
+      <c r="H46">
+        <v>0.09273323701332095</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08936653726199123</v>
+        <v>0.0800442698334425</v>
       </c>
       <c r="C47">
-        <v>-0.07488923969022633</v>
+        <v>0.09166536490899221</v>
       </c>
       <c r="D47">
-        <v>-0.04697105209910713</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03572692943215094</v>
+      </c>
+      <c r="E47">
+        <v>0.03486604759268185</v>
+      </c>
+      <c r="F47">
+        <v>0.02840913237264647</v>
+      </c>
+      <c r="G47">
+        <v>-0.01476962586222252</v>
+      </c>
+      <c r="H47">
+        <v>-0.04805394595872602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.009656137144947155</v>
+        <v>0.01347396593523136</v>
       </c>
       <c r="C48">
-        <v>-0.01666885479604195</v>
+        <v>0.02083727519585582</v>
       </c>
       <c r="D48">
-        <v>-0.06297857099945986</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07121517414680838</v>
+      </c>
+      <c r="E48">
+        <v>0.05236822944293672</v>
+      </c>
+      <c r="F48">
+        <v>0.01289384307772108</v>
+      </c>
+      <c r="G48">
+        <v>0.01041380647395507</v>
+      </c>
+      <c r="H48">
+        <v>0.05651284696840655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05433424073438858</v>
+        <v>0.04898760981317005</v>
       </c>
       <c r="C50">
-        <v>-0.0562555095424407</v>
+        <v>0.06763199147214666</v>
       </c>
       <c r="D50">
-        <v>-0.06131681596336435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05417780330024172</v>
+      </c>
+      <c r="E50">
+        <v>0.02658812907823623</v>
+      </c>
+      <c r="F50">
+        <v>0.03958224045407222</v>
+      </c>
+      <c r="G50">
+        <v>-0.03452772004077283</v>
+      </c>
+      <c r="H50">
+        <v>0.0196673026902915</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009022250183590848</v>
+        <v>0.01078300923025562</v>
       </c>
       <c r="C51">
-        <v>-0.01413492460957206</v>
+        <v>0.01966958897059674</v>
       </c>
       <c r="D51">
-        <v>-0.07754043332669501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08982114881860834</v>
+      </c>
+      <c r="E51">
+        <v>0.01087473106467148</v>
+      </c>
+      <c r="F51">
+        <v>0.001153261653704051</v>
+      </c>
+      <c r="G51">
+        <v>0.01242877138589426</v>
+      </c>
+      <c r="H51">
+        <v>0.08910255597468755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08660717663294777</v>
+        <v>0.0865436696449353</v>
       </c>
       <c r="C53">
-        <v>-0.09312539764443527</v>
+        <v>0.1012128273116187</v>
       </c>
       <c r="D53">
-        <v>-0.006760678190348806</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01736054289778083</v>
+      </c>
+      <c r="E53">
+        <v>0.1063099719952746</v>
+      </c>
+      <c r="F53">
+        <v>0.07811542811566438</v>
+      </c>
+      <c r="G53">
+        <v>0.04883403372706095</v>
+      </c>
+      <c r="H53">
+        <v>-0.02776087081989776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02332307411664252</v>
+        <v>0.02406285694921693</v>
       </c>
       <c r="C54">
-        <v>-0.03059870148250118</v>
+        <v>0.03451972120233394</v>
       </c>
       <c r="D54">
-        <v>-0.09405997522766114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08775687698780123</v>
+      </c>
+      <c r="E54">
+        <v>0.03589570850218505</v>
+      </c>
+      <c r="F54">
+        <v>-0.00248794882182651</v>
+      </c>
+      <c r="G54">
+        <v>-0.02535885977150563</v>
+      </c>
+      <c r="H54">
+        <v>0.08716953864176272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08885663536438078</v>
+        <v>0.08436019419495389</v>
       </c>
       <c r="C55">
-        <v>-0.07100589741724339</v>
+        <v>0.08119303010001473</v>
       </c>
       <c r="D55">
-        <v>0.008428915725687635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004613703883563637</v>
+      </c>
+      <c r="E55">
+        <v>0.05232031033983128</v>
+      </c>
+      <c r="F55">
+        <v>0.0573808413562971</v>
+      </c>
+      <c r="G55">
+        <v>0.02276885143207062</v>
+      </c>
+      <c r="H55">
+        <v>-0.01765221534043558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1367049586822364</v>
+        <v>0.1281039516851791</v>
       </c>
       <c r="C56">
-        <v>-0.1035115174698205</v>
+        <v>0.1269209862066985</v>
       </c>
       <c r="D56">
-        <v>0.002811851071140452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00730054994770416</v>
+      </c>
+      <c r="E56">
+        <v>0.05652075468879639</v>
+      </c>
+      <c r="F56">
+        <v>0.05503322908135427</v>
+      </c>
+      <c r="G56">
+        <v>-0.003795778318699732</v>
+      </c>
+      <c r="H56">
+        <v>-0.04943830793171573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.002607619920537358</v>
+        <v>0.01224956756894591</v>
       </c>
       <c r="C58">
-        <v>-0.01001607925974929</v>
+        <v>0.03465565376876387</v>
       </c>
       <c r="D58">
-        <v>-0.2819208489864461</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3262988315224302</v>
+      </c>
+      <c r="E58">
+        <v>0.1258032307216947</v>
+      </c>
+      <c r="F58">
+        <v>0.1228316033675869</v>
+      </c>
+      <c r="G58">
+        <v>-0.08101783180623989</v>
+      </c>
+      <c r="H58">
+        <v>-0.026956474784303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.152988866751451</v>
+        <v>0.1823193768247598</v>
       </c>
       <c r="C59">
-        <v>0.1748454372029316</v>
+        <v>-0.1643591057721519</v>
       </c>
       <c r="D59">
-        <v>-0.03892248896308212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05437237759070804</v>
+      </c>
+      <c r="E59">
+        <v>0.03216240288306694</v>
+      </c>
+      <c r="F59">
+        <v>-0.03173820631391379</v>
+      </c>
+      <c r="G59">
+        <v>-0.003495993306236992</v>
+      </c>
+      <c r="H59">
+        <v>-0.02290089691811798</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2383277743244769</v>
+        <v>0.2241603267775353</v>
       </c>
       <c r="C60">
-        <v>-0.08838975631452387</v>
+        <v>0.1093176317471382</v>
       </c>
       <c r="D60">
-        <v>-0.2101360256622523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1302492939559545</v>
+      </c>
+      <c r="E60">
+        <v>-0.34055221150334</v>
+      </c>
+      <c r="F60">
+        <v>-0.05462273818073339</v>
+      </c>
+      <c r="G60">
+        <v>0.02982538389117255</v>
+      </c>
+      <c r="H60">
+        <v>-0.1444531658063157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04006682359949994</v>
+        <v>0.03831098368659305</v>
       </c>
       <c r="C61">
-        <v>-0.05477592112581462</v>
+        <v>0.06313139104405416</v>
       </c>
       <c r="D61">
-        <v>-0.1011472237804398</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0935441652638878</v>
+      </c>
+      <c r="E61">
+        <v>0.001545337992724376</v>
+      </c>
+      <c r="F61">
+        <v>-0.02024614762735057</v>
+      </c>
+      <c r="G61">
+        <v>0.009528669577845457</v>
+      </c>
+      <c r="H61">
+        <v>0.05547327684778011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01586055960556257</v>
+        <v>0.01666866452770742</v>
       </c>
       <c r="C63">
-        <v>-0.0211874015786702</v>
+        <v>0.0294260071443739</v>
       </c>
       <c r="D63">
-        <v>-0.07523069730491061</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07480312900658755</v>
+      </c>
+      <c r="E63">
+        <v>0.01204740015613236</v>
+      </c>
+      <c r="F63">
+        <v>0.009183965859721149</v>
+      </c>
+      <c r="G63">
+        <v>0.01470434417393519</v>
+      </c>
+      <c r="H63">
+        <v>0.05158088684624603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05473735054739115</v>
+        <v>0.05002525519081707</v>
       </c>
       <c r="C64">
-        <v>-0.07406193881988023</v>
+        <v>0.08132728035810985</v>
       </c>
       <c r="D64">
-        <v>-0.05352559249673718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05617697766294481</v>
+      </c>
+      <c r="E64">
+        <v>0.0194971678617328</v>
+      </c>
+      <c r="F64">
+        <v>-0.003452907851359172</v>
+      </c>
+      <c r="G64">
+        <v>0.06945350586948719</v>
+      </c>
+      <c r="H64">
+        <v>0.03897814260622452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03917488703091953</v>
+        <v>0.03979771826326887</v>
       </c>
       <c r="C65">
-        <v>-0.02172334489331593</v>
+        <v>0.02815854488986353</v>
       </c>
       <c r="D65">
-        <v>-0.1239421489200109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1193385038088009</v>
+      </c>
+      <c r="E65">
+        <v>-0.006077173018026419</v>
+      </c>
+      <c r="F65">
+        <v>0.01539797479089338</v>
+      </c>
+      <c r="G65">
+        <v>-0.002439903069040749</v>
+      </c>
+      <c r="H65">
+        <v>0.02114798363934173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03632102438793865</v>
+        <v>0.03592124357450458</v>
       </c>
       <c r="C66">
-        <v>-0.06357888944286928</v>
+        <v>0.0789762399260967</v>
       </c>
       <c r="D66">
-        <v>-0.1050979219921431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1268381481330025</v>
+      </c>
+      <c r="E66">
+        <v>0.01084723567531973</v>
+      </c>
+      <c r="F66">
+        <v>-0.01386877619137226</v>
+      </c>
+      <c r="G66">
+        <v>0.001263952778711897</v>
+      </c>
+      <c r="H66">
+        <v>0.06385419589135834</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03920521519109158</v>
+        <v>0.03840402760597859</v>
       </c>
       <c r="C67">
-        <v>-0.02309134139200476</v>
+        <v>0.026560345102628</v>
       </c>
       <c r="D67">
-        <v>-0.03462424739904878</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0280452536611253</v>
+      </c>
+      <c r="E67">
+        <v>0.01163259029770148</v>
+      </c>
+      <c r="F67">
+        <v>-0.01676611933786057</v>
+      </c>
+      <c r="G67">
+        <v>-0.0210983640506542</v>
+      </c>
+      <c r="H67">
+        <v>0.04201923438641326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1774862875970165</v>
+        <v>0.2027265994411422</v>
       </c>
       <c r="C68">
-        <v>0.2177154589152558</v>
+        <v>-0.1958529030637646</v>
       </c>
       <c r="D68">
-        <v>-0.0176714300179087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02529432844399017</v>
+      </c>
+      <c r="E68">
+        <v>0.03137656377351301</v>
+      </c>
+      <c r="F68">
+        <v>0.03035000368126903</v>
+      </c>
+      <c r="G68">
+        <v>-0.003543671499986365</v>
+      </c>
+      <c r="H68">
+        <v>0.01092748795298316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08019430724392478</v>
+        <v>0.07096375528609848</v>
       </c>
       <c r="C69">
-        <v>-0.08997495297019724</v>
+        <v>0.09962413836792983</v>
       </c>
       <c r="D69">
-        <v>-0.06818364282742395</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04924678613074068</v>
+      </c>
+      <c r="E69">
+        <v>0.02128759612801278</v>
+      </c>
+      <c r="F69">
+        <v>0.008720530781799071</v>
+      </c>
+      <c r="G69">
+        <v>-0.003094865289377548</v>
+      </c>
+      <c r="H69">
+        <v>-0.02048341864902745</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1585368704325653</v>
+        <v>0.1873221167747971</v>
       </c>
       <c r="C71">
-        <v>0.2176546342527065</v>
+        <v>-0.203027163325756</v>
       </c>
       <c r="D71">
-        <v>-0.02848152129923094</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03984437537585878</v>
+      </c>
+      <c r="E71">
+        <v>0.04900244325416413</v>
+      </c>
+      <c r="F71">
+        <v>0.06181157269128275</v>
+      </c>
+      <c r="G71">
+        <v>-0.02530252062853315</v>
+      </c>
+      <c r="H71">
+        <v>-0.004717405405138966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1038106890583937</v>
+        <v>0.09800328117740094</v>
       </c>
       <c r="C72">
-        <v>-0.05784884661712301</v>
+        <v>0.07970043717978945</v>
       </c>
       <c r="D72">
-        <v>-0.09082757882788035</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09495246264393033</v>
+      </c>
+      <c r="E72">
+        <v>-0.04219911236205824</v>
+      </c>
+      <c r="F72">
+        <v>0.02911185895637451</v>
+      </c>
+      <c r="G72">
+        <v>0.03704043648227906</v>
+      </c>
+      <c r="H72">
+        <v>0.03705389803178878</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2547490689076218</v>
+        <v>0.2352349347108821</v>
       </c>
       <c r="C73">
-        <v>-0.05519627131772939</v>
+        <v>0.1006749597462484</v>
       </c>
       <c r="D73">
-        <v>-0.3195755882525393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1731242779450328</v>
+      </c>
+      <c r="E73">
+        <v>-0.6400561389114213</v>
+      </c>
+      <c r="F73">
+        <v>-0.1464676270410683</v>
+      </c>
+      <c r="G73">
+        <v>0.05800352900824936</v>
+      </c>
+      <c r="H73">
+        <v>-0.1819782240514717</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1044118365671405</v>
+        <v>0.09460663249744433</v>
       </c>
       <c r="C74">
-        <v>-0.07658623037066192</v>
+        <v>0.09227929984763508</v>
       </c>
       <c r="D74">
-        <v>0.00357265122535749</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01168458430901897</v>
+      </c>
+      <c r="E74">
+        <v>0.04695564080313378</v>
+      </c>
+      <c r="F74">
+        <v>0.07147400345862752</v>
+      </c>
+      <c r="G74">
+        <v>0.04353247081536805</v>
+      </c>
+      <c r="H74">
+        <v>-0.05415430751072642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2466651562494332</v>
+        <v>0.2253316080356001</v>
       </c>
       <c r="C75">
-        <v>-0.1362910412853619</v>
+        <v>0.1667454961455822</v>
       </c>
       <c r="D75">
-        <v>0.07294829639420825</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09327576655001636</v>
+      </c>
+      <c r="E75">
+        <v>0.1088772723658444</v>
+      </c>
+      <c r="F75">
+        <v>0.02250466084338872</v>
+      </c>
+      <c r="G75">
+        <v>0.009381203997732663</v>
+      </c>
+      <c r="H75">
+        <v>-0.1012773311736343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1345108459700956</v>
+        <v>0.1239618730473385</v>
       </c>
       <c r="C76">
-        <v>-0.0983768036718162</v>
+        <v>0.1132551886985556</v>
       </c>
       <c r="D76">
-        <v>0.002500649511135359</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.004862114049924106</v>
+      </c>
+      <c r="E76">
+        <v>0.1092322671844187</v>
+      </c>
+      <c r="F76">
+        <v>0.04106485710472233</v>
+      </c>
+      <c r="G76">
+        <v>0.02749818958008642</v>
+      </c>
+      <c r="H76">
+        <v>-3.369838392318598e-06</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04698936601076274</v>
+        <v>0.05447222645525904</v>
       </c>
       <c r="C77">
-        <v>-0.06646849488577963</v>
+        <v>0.0749550606951514</v>
       </c>
       <c r="D77">
-        <v>-0.0399487465486315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.126950727947624</v>
+      </c>
+      <c r="E77">
+        <v>0.3352641426814502</v>
+      </c>
+      <c r="F77">
+        <v>-0.3244018854185758</v>
+      </c>
+      <c r="G77">
+        <v>-0.4788249467875278</v>
+      </c>
+      <c r="H77">
+        <v>-0.6182650245999222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03338270549323755</v>
+        <v>0.04197238361011067</v>
       </c>
       <c r="C78">
-        <v>-0.0587677866985986</v>
+        <v>0.06958503884135073</v>
       </c>
       <c r="D78">
-        <v>-0.1238676824134094</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1368763114304107</v>
+      </c>
+      <c r="E78">
+        <v>0.01976158053590227</v>
+      </c>
+      <c r="F78">
+        <v>0.02911167956727157</v>
+      </c>
+      <c r="G78">
+        <v>-0.005761504712859264</v>
+      </c>
+      <c r="H78">
+        <v>0.009544742310578459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03577040353255078</v>
+        <v>0.04775757443629446</v>
       </c>
       <c r="C79">
-        <v>-0.0811170668584159</v>
+        <v>0.09812135550331839</v>
       </c>
       <c r="D79">
-        <v>0.08921568312460915</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02526703793387132</v>
+      </c>
+      <c r="E79">
+        <v>0.221730628397439</v>
+      </c>
+      <c r="F79">
+        <v>0.3124383819972791</v>
+      </c>
+      <c r="G79">
+        <v>0.6670976818648868</v>
+      </c>
+      <c r="H79">
+        <v>-0.3797214819743131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02385712810211176</v>
+        <v>0.02415355910984661</v>
       </c>
       <c r="C80">
-        <v>-0.04570228234276384</v>
+        <v>0.04650278210847424</v>
       </c>
       <c r="D80">
-        <v>-0.01746771806558892</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01959389678466079</v>
+      </c>
+      <c r="E80">
+        <v>0.01813027683270423</v>
+      </c>
+      <c r="F80">
+        <v>0.003023460216791993</v>
+      </c>
+      <c r="G80">
+        <v>0.002620892889487074</v>
+      </c>
+      <c r="H80">
+        <v>0.06556108175902341</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1367965364875575</v>
+        <v>0.1207750925945453</v>
       </c>
       <c r="C81">
-        <v>-0.1055091711389436</v>
+        <v>0.1230160384356024</v>
       </c>
       <c r="D81">
-        <v>0.06622255029787688</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07403057979572079</v>
+      </c>
+      <c r="E81">
+        <v>0.1060540389302198</v>
+      </c>
+      <c r="F81">
+        <v>0.05602968001923929</v>
+      </c>
+      <c r="G81">
+        <v>0.01225372081638488</v>
+      </c>
+      <c r="H81">
+        <v>-0.03036071267147676</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3052087118271615</v>
+        <v>0.2571449959076196</v>
       </c>
       <c r="C82">
-        <v>-0.2796423151072602</v>
+        <v>0.2738694219689849</v>
       </c>
       <c r="D82">
-        <v>0.237831759664096</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2401457492222642</v>
+      </c>
+      <c r="E82">
+        <v>-0.01839568870057481</v>
+      </c>
+      <c r="F82">
+        <v>0.0165614561338513</v>
+      </c>
+      <c r="G82">
+        <v>-0.1667491369080531</v>
+      </c>
+      <c r="H82">
+        <v>0.0195600845767787</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0271915476176904</v>
+        <v>0.02188769862617077</v>
       </c>
       <c r="C83">
-        <v>-0.05277450180147417</v>
+        <v>0.04977401105796571</v>
       </c>
       <c r="D83">
-        <v>-0.0455333286437976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05133444411073567</v>
+      </c>
+      <c r="E83">
+        <v>0.03010957193181214</v>
+      </c>
+      <c r="F83">
+        <v>-0.0675449746264889</v>
+      </c>
+      <c r="G83">
+        <v>-0.05353640048511789</v>
+      </c>
+      <c r="H83">
+        <v>-0.0538695825411263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0009062677751795513</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004813745000436706</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01864128238614136</v>
+      </c>
+      <c r="E84">
+        <v>0.01827678888987146</v>
+      </c>
+      <c r="F84">
+        <v>0.01556644496872083</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004457263378398524</v>
+      </c>
+      <c r="H84">
+        <v>0.02175817142960158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1697101624972462</v>
+        <v>0.1539727351648679</v>
       </c>
       <c r="C85">
-        <v>-0.1147593374551311</v>
+        <v>0.1389201270192761</v>
       </c>
       <c r="D85">
-        <v>0.03234624288186698</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05865778017537125</v>
+      </c>
+      <c r="E85">
+        <v>0.0394764336914803</v>
+      </c>
+      <c r="F85">
+        <v>0.0588617681314369</v>
+      </c>
+      <c r="G85">
+        <v>0.09193099985361024</v>
+      </c>
+      <c r="H85">
+        <v>-0.0324229900040432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01563601221641505</v>
+        <v>0.01771574902316667</v>
       </c>
       <c r="C86">
-        <v>-0.03548592297884468</v>
+        <v>0.03318304839965833</v>
       </c>
       <c r="D86">
-        <v>-0.1181914347309823</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1179494552262481</v>
+      </c>
+      <c r="E86">
+        <v>0.03246332108563712</v>
+      </c>
+      <c r="F86">
+        <v>-0.01794957908260096</v>
+      </c>
+      <c r="G86">
+        <v>-0.06760953189183379</v>
+      </c>
+      <c r="H86">
+        <v>-0.01088453401537046</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02177595521739089</v>
+        <v>0.0340676269659899</v>
       </c>
       <c r="C87">
-        <v>-0.01279105360853889</v>
+        <v>0.02406415635530885</v>
       </c>
       <c r="D87">
-        <v>-0.1017791244542611</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1402442664498594</v>
+      </c>
+      <c r="E87">
+        <v>0.08110170857953075</v>
+      </c>
+      <c r="F87">
+        <v>0.01899732432355776</v>
+      </c>
+      <c r="G87">
+        <v>-0.0105061118906122</v>
+      </c>
+      <c r="H87">
+        <v>0.06013658445760339</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07108353982986197</v>
+        <v>0.06477989701824187</v>
       </c>
       <c r="C88">
-        <v>-0.04234937860265027</v>
+        <v>0.05490520697174404</v>
       </c>
       <c r="D88">
-        <v>-0.04210562419642897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02379154552156219</v>
+      </c>
+      <c r="E88">
+        <v>-0.003461528931410318</v>
+      </c>
+      <c r="F88">
+        <v>0.02785787947919838</v>
+      </c>
+      <c r="G88">
+        <v>0.009344645265771553</v>
+      </c>
+      <c r="H88">
+        <v>0.02653083074367188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2473787766298907</v>
+        <v>0.2880497209343723</v>
       </c>
       <c r="C89">
-        <v>0.3884284869751713</v>
+        <v>-0.3447344649786082</v>
       </c>
       <c r="D89">
-        <v>0.0173874952883919</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.006052016539421929</v>
+      </c>
+      <c r="E89">
+        <v>0.06157971635144557</v>
+      </c>
+      <c r="F89">
+        <v>-0.003598804181427872</v>
+      </c>
+      <c r="G89">
+        <v>0.04095358090622636</v>
+      </c>
+      <c r="H89">
+        <v>0.08829979055859971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2186444710597218</v>
+        <v>0.245156002620387</v>
       </c>
       <c r="C90">
-        <v>0.2889524268584292</v>
+        <v>-0.2464227068124503</v>
       </c>
       <c r="D90">
-        <v>-0.001787493720884641</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02369105916026787</v>
+      </c>
+      <c r="E90">
+        <v>0.04782843610287542</v>
+      </c>
+      <c r="F90">
+        <v>-0.005549211791473858</v>
+      </c>
+      <c r="G90">
+        <v>-0.04622879211310321</v>
+      </c>
+      <c r="H90">
+        <v>0.04234110735949287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1739080089948406</v>
+        <v>0.154016426748441</v>
       </c>
       <c r="C91">
-        <v>-0.149424130490288</v>
+        <v>0.1581624267046039</v>
       </c>
       <c r="D91">
-        <v>0.08351871078796866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08361870307524795</v>
+      </c>
+      <c r="E91">
+        <v>0.1085347792693009</v>
+      </c>
+      <c r="F91">
+        <v>0.05959463894385273</v>
+      </c>
+      <c r="G91">
+        <v>0.05616152361653283</v>
+      </c>
+      <c r="H91">
+        <v>-0.0949022896692477</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1917507124395966</v>
+        <v>0.2307957739506481</v>
       </c>
       <c r="C92">
-        <v>0.2724832804045373</v>
+        <v>-0.2658074070768984</v>
       </c>
       <c r="D92">
-        <v>-0.01726482793249855</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03368114138546571</v>
+      </c>
+      <c r="E92">
+        <v>0.07852965460894272</v>
+      </c>
+      <c r="F92">
+        <v>-0.003359642597750267</v>
+      </c>
+      <c r="G92">
+        <v>-0.02189179678383231</v>
+      </c>
+      <c r="H92">
+        <v>0.009935622120569566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2454735891946805</v>
+        <v>0.2672300199392316</v>
       </c>
       <c r="C93">
-        <v>0.2989080643784016</v>
+        <v>-0.2559051488901456</v>
       </c>
       <c r="D93">
-        <v>-0.007057083330446649</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003041313002039426</v>
+      </c>
+      <c r="E93">
+        <v>-0.007625388447449747</v>
+      </c>
+      <c r="F93">
+        <v>0.02146308333092057</v>
+      </c>
+      <c r="G93">
+        <v>0.01268847192146316</v>
+      </c>
+      <c r="H93">
+        <v>0.003718838919637171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3698749310450249</v>
+        <v>0.3295418932427049</v>
       </c>
       <c r="C94">
-        <v>-0.2291491097031075</v>
+        <v>0.2640613556914307</v>
       </c>
       <c r="D94">
-        <v>0.4444298679913654</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4398071083613658</v>
+      </c>
+      <c r="E94">
+        <v>0.0530126136514221</v>
+      </c>
+      <c r="F94">
+        <v>-0.02269216393620982</v>
+      </c>
+      <c r="G94">
+        <v>-0.1642761858878056</v>
+      </c>
+      <c r="H94">
+        <v>0.3551663847480319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06942150666564061</v>
+        <v>0.06469531570383723</v>
       </c>
       <c r="C95">
-        <v>-0.05757562723352872</v>
+        <v>0.06459073007671585</v>
       </c>
       <c r="D95">
-        <v>-0.06067985068309984</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06562439536111006</v>
+      </c>
+      <c r="E95">
+        <v>0.207275958909895</v>
+      </c>
+      <c r="F95">
+        <v>-0.8071308134826256</v>
+      </c>
+      <c r="G95">
+        <v>0.4116461910989161</v>
+      </c>
+      <c r="H95">
+        <v>0.1765451841155854</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1672076101363733</v>
+        <v>0.1612968211062264</v>
       </c>
       <c r="C98">
-        <v>-0.04477906470954934</v>
+        <v>0.07388312773502678</v>
       </c>
       <c r="D98">
-        <v>-0.1767406119287543</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1267495595115974</v>
+      </c>
+      <c r="E98">
+        <v>-0.3037927664244819</v>
+      </c>
+      <c r="F98">
+        <v>-0.01466479184660195</v>
+      </c>
+      <c r="G98">
+        <v>0.03570466226436294</v>
+      </c>
+      <c r="H98">
+        <v>-0.09304353667458855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.001043488426718086</v>
+        <v>0.002887580145557057</v>
       </c>
       <c r="C101">
-        <v>-0.02116457524682535</v>
+        <v>0.02120303105326078</v>
       </c>
       <c r="D101">
-        <v>-0.07266012698074588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08992711973346386</v>
+      </c>
+      <c r="E101">
+        <v>0.02123712799735458</v>
+      </c>
+      <c r="F101">
+        <v>0.02779232726242078</v>
+      </c>
+      <c r="G101">
+        <v>0.007806429599064268</v>
+      </c>
+      <c r="H101">
+        <v>0.09655773947969015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1214062318005239</v>
+        <v>0.1032974631407697</v>
       </c>
       <c r="C102">
-        <v>-0.1186398633019953</v>
+        <v>0.1205077834994504</v>
       </c>
       <c r="D102">
-        <v>0.05132880334669766</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06244437600113245</v>
+      </c>
+      <c r="E102">
+        <v>0.03204987827422211</v>
+      </c>
+      <c r="F102">
+        <v>-0.01153251321847731</v>
+      </c>
+      <c r="G102">
+        <v>-0.01133375663810355</v>
+      </c>
+      <c r="H102">
+        <v>-0.03659967157993364</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
